--- a/5_Hardware/WSBD_FlexBoard/Project Outputs for WSBD_FlexBoard/Bill of Materials/Bill of Materials-WSBD_FlexBoard.xlsx
+++ b/5_Hardware/WSBD_FlexBoard/Project Outputs for WSBD_FlexBoard/Bill of Materials/Bill of Materials-WSBD_FlexBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe2074dc24c052ba/Beruflich/TBZ/Projects/Wireless-ScoreBoard-Display/5_Hardware/WSBD_FlexBoard/Project Outputs for WSBD_FlexBoard/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2ADF7C8-28A6-4B00-AE57-D8BCBD36FBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0191450A-D7A4-4A1D-A787-EE3441156280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{4719CC31-C1A3-498A-98B5-9DF346A2E6B1}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{F735634B-D51F-4A4D-8528-CA4974F5078D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WSBD_FlexBoar" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Fitted</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>J2, J3, J4, J5, J6, J7</t>
+    <t>J2, J3, J4, J5</t>
   </si>
   <si>
     <t>F52R-1A7H1-11008</t>
@@ -92,7 +92,40 @@
     <t>609-F52R-1A7H1-11008CT-ND</t>
   </si>
   <si>
-    <t>MEC1, MEC2, MEC5, MEC6</t>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>F52Q-1A7H1-11016</t>
+  </si>
+  <si>
+    <t>CONN FPC TOP 16POS 1mm</t>
+  </si>
+  <si>
+    <t>609-F52Q-1A7H1-11016CT-ND</t>
+  </si>
+  <si>
+    <t>MEC1, MEC4</t>
+  </si>
+  <si>
+    <t>Ynvisible 7Seg 80mm</t>
+  </si>
+  <si>
+    <t>EMECH SINGLE EPAPER 7SEG 80MM</t>
+  </si>
+  <si>
+    <t>Ynvisible</t>
+  </si>
+  <si>
+    <t>LARGE E-PAPER DISPLAY – SINGLE DIGIT 80MM</t>
+  </si>
+  <si>
+    <t>Ynvisible Shop</t>
+  </si>
+  <si>
+    <t>SINGLE DIGIT 80MM</t>
+  </si>
+  <si>
+    <t>MEC2, MEC3</t>
   </si>
   <si>
     <t>Ynvisible 7Seg 184mm</t>
@@ -101,31 +134,10 @@
     <t>EMECH SINGLE EPAPER 7SEG 184MM</t>
   </si>
   <si>
-    <t>Ynvisible</t>
-  </si>
-  <si>
     <t>LARGE E-PAPER DISPLAY – SINGLE DIGIT 184MM</t>
   </si>
   <si>
-    <t>Ynvisible Shop</t>
-  </si>
-  <si>
     <t>SINGLE DIGIT 184MM</t>
-  </si>
-  <si>
-    <t>MEC3, MEC4</t>
-  </si>
-  <si>
-    <t>Ynvisible 7Seg 80mm</t>
-  </si>
-  <si>
-    <t>EMECH SINGLE EPAPER 7SEG 80MM</t>
-  </si>
-  <si>
-    <t>LARGE E-PAPER DISPLAY – SINGLE DIGIT 80MM</t>
-  </si>
-  <si>
-    <t>SINGLE DIGIT 80MM</t>
   </si>
 </sst>
 </file>
@@ -521,8 +533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE5356-F105-49A8-9747-DD0BB13581EC}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C0699F-BEB9-4219-99AB-54F7D66EAAAE}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -605,26 +617,24 @@
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -632,30 +642,62 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
     </row>
